--- a/Code/Results/Cases/Case_2_238/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_238/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.013734984095484</v>
+        <v>1.064003666814281</v>
       </c>
       <c r="D2">
-        <v>1.031713050563766</v>
+        <v>1.065449079084737</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680761</v>
+        <v>0.992614727750844</v>
       </c>
       <c r="F2">
-        <v>1.035882679319694</v>
+        <v>1.074230385536447</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.047992099892422</v>
+        <v>1.045399440795534</v>
       </c>
       <c r="J2">
-        <v>1.035512503806303</v>
+        <v>1.068966137562483</v>
       </c>
       <c r="K2">
-        <v>1.042747568419306</v>
+        <v>1.068162289781367</v>
       </c>
       <c r="L2">
-        <v>0.9648701708403392</v>
+        <v>0.9955398523335997</v>
       </c>
       <c r="M2">
-        <v>1.04686376039779</v>
+        <v>1.076920147860174</v>
       </c>
       <c r="N2">
-        <v>1.036983050336653</v>
+        <v>1.070484192089951</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.023041120584726</v>
+        <v>1.065766352844172</v>
       </c>
       <c r="D3">
-        <v>1.039013033046494</v>
+        <v>1.066832518187432</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057848</v>
+        <v>0.9936372048519299</v>
       </c>
       <c r="F3">
-        <v>1.043755146406184</v>
+        <v>1.075750428827662</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.05088257361745</v>
+        <v>1.045841419034526</v>
       </c>
       <c r="J3">
-        <v>1.042922778507126</v>
+        <v>1.070380011428344</v>
       </c>
       <c r="K3">
-        <v>1.049169931400789</v>
+        <v>1.069359710630731</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474066</v>
+        <v>0.9963617723202687</v>
       </c>
       <c r="M3">
-        <v>1.053857184952223</v>
+        <v>1.078255551151607</v>
       </c>
       <c r="N3">
-        <v>1.044403848477521</v>
+        <v>1.071900073818876</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.028846194519922</v>
+        <v>1.066903966078858</v>
       </c>
       <c r="D4">
-        <v>1.043568867779501</v>
+        <v>1.067724896835661</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088612</v>
+        <v>0.9942998659930998</v>
       </c>
       <c r="F4">
-        <v>1.048671938728976</v>
+        <v>1.076731410998891</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.052671462916335</v>
+        <v>1.046124747480966</v>
       </c>
       <c r="J4">
-        <v>1.047539726992164</v>
+        <v>1.071291606865056</v>
       </c>
       <c r="K4">
-        <v>1.053168423469345</v>
+        <v>1.070131194067234</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952756</v>
+        <v>0.9968940712668347</v>
       </c>
       <c r="M4">
-        <v>1.058216389103742</v>
+        <v>1.079116554021518</v>
       </c>
       <c r="N4">
-        <v>1.049027353558978</v>
+        <v>1.07281296382567</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.031238307689184</v>
+        <v>1.06738152430279</v>
       </c>
       <c r="D5">
-        <v>1.045446570301022</v>
+        <v>1.068099393439709</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769891</v>
+        <v>0.994578699834602</v>
       </c>
       <c r="F5">
-        <v>1.050699297345862</v>
+        <v>1.07714320796616</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.053405131121888</v>
+        <v>1.046243225971316</v>
       </c>
       <c r="J5">
-        <v>1.049440840304821</v>
+        <v>1.071674069307135</v>
       </c>
       <c r="K5">
-        <v>1.054814129641917</v>
+        <v>1.07045473903141</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702912</v>
+        <v>0.9971179600053012</v>
       </c>
       <c r="M5">
-        <v>1.06001179346848</v>
+        <v>1.079477790048546</v>
       </c>
       <c r="N5">
-        <v>1.0509311666706</v>
+        <v>1.073195969408285</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.031637214790701</v>
+        <v>1.067461668140125</v>
       </c>
       <c r="D6">
-        <v>1.045759711947664</v>
+        <v>1.068162234709972</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017085</v>
+        <v>0.994625531979634</v>
       </c>
       <c r="F6">
-        <v>1.051037449179381</v>
+        <v>1.077212315171677</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.05352726969423</v>
+        <v>1.046263082047318</v>
       </c>
       <c r="J6">
-        <v>1.049757783593896</v>
+        <v>1.071738241490395</v>
       </c>
       <c r="K6">
-        <v>1.055088447796606</v>
+        <v>1.070509017813594</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965046</v>
+        <v>0.9971555583673455</v>
       </c>
       <c r="M6">
-        <v>1.060311136959504</v>
+        <v>1.079538400694178</v>
       </c>
       <c r="N6">
-        <v>1.0512485600555</v>
+        <v>1.073260232723406</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.028878343620005</v>
+        <v>1.066910349943307</v>
       </c>
       <c r="D7">
-        <v>1.043594102136665</v>
+        <v>1.067729903453785</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>0.9943035907978918</v>
       </c>
       <c r="F7">
-        <v>1.048699180789816</v>
+        <v>1.076736915823047</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.052681337060904</v>
+        <v>1.046126333076872</v>
       </c>
       <c r="J7">
-        <v>1.04756528291652</v>
+        <v>1.071296720365128</v>
       </c>
       <c r="K7">
-        <v>1.053190549065715</v>
+        <v>1.070135520368143</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290568</v>
+        <v>0.9968970624459044</v>
       </c>
       <c r="M7">
-        <v>1.058240522415481</v>
+        <v>1.079121383726954</v>
       </c>
       <c r="N7">
-        <v>1.049052945775679</v>
+        <v>1.072818084587498</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.01692713042032</v>
+        <v>1.064599997189373</v>
       </c>
       <c r="D8">
-        <v>1.03421649227141</v>
+        <v>1.065917204817564</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>0.9929600610674297</v>
       </c>
       <c r="F8">
-        <v>1.038581670994264</v>
+        <v>1.074744633997703</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.048986522036657</v>
+        <v>1.045549362975329</v>
       </c>
       <c r="J8">
-        <v>1.038055453215879</v>
+        <v>1.069444648251801</v>
       </c>
       <c r="K8">
-        <v>1.044952098601306</v>
+        <v>1.068567658902249</v>
       </c>
       <c r="L8">
-        <v>0.966070643453771</v>
+        <v>0.9958175282591057</v>
       </c>
       <c r="M8">
-        <v>1.049263209310227</v>
+        <v>1.077372100439338</v>
       </c>
       <c r="N8">
-        <v>1.03952961102607</v>
+        <v>1.070963382319334</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9940273259030201</v>
+        <v>1.060505502052624</v>
       </c>
       <c r="D9">
-        <v>1.016274400719304</v>
+        <v>1.062701078902071</v>
       </c>
       <c r="E9">
-        <v>0.9435740419923925</v>
+        <v>0.9906006454969559</v>
       </c>
       <c r="F9">
-        <v>1.019254032926702</v>
+        <v>1.071213642646732</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.041794745922987</v>
+        <v>1.044512094882534</v>
       </c>
       <c r="J9">
-        <v>1.019792772069441</v>
+        <v>1.066155438276693</v>
       </c>
       <c r="K9">
-        <v>1.029108842182151</v>
+        <v>1.065778945782639</v>
       </c>
       <c r="L9">
-        <v>0.9576541208832519</v>
+        <v>0.9939188001724441</v>
       </c>
       <c r="M9">
-        <v>1.032042263964433</v>
+        <v>1.07426547163268</v>
       </c>
       <c r="N9">
-        <v>1.021240994777645</v>
+        <v>1.067669501288784</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9772252145420923</v>
+        <v>1.057759193556481</v>
       </c>
       <c r="D10">
-        <v>1.003142031794483</v>
+        <v>1.060541578458876</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547282</v>
+        <v>0.989033133672735</v>
       </c>
       <c r="F10">
-        <v>1.005128008186387</v>
+        <v>1.068845245045325</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.036448370144002</v>
+        <v>1.04380647888322</v>
       </c>
       <c r="J10">
-        <v>1.006372508643089</v>
+        <v>1.063944651051682</v>
       </c>
       <c r="K10">
-        <v>1.017454786681097</v>
+        <v>1.063901725016347</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689357</v>
+        <v>0.9926553831429383</v>
       </c>
       <c r="M10">
-        <v>1.019405288039227</v>
+        <v>1.07217745486262</v>
       </c>
       <c r="N10">
-        <v>1.007801673037903</v>
+        <v>1.065455574492332</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9695020045208509</v>
+        <v>1.056565853204719</v>
       </c>
       <c r="D11">
-        <v>0.9971171440889783</v>
+        <v>1.059602681955827</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016258</v>
+        <v>0.988355674866747</v>
       </c>
       <c r="F11">
-        <v>0.998652094574987</v>
+        <v>1.067816122642857</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.033976283147605</v>
+        <v>1.043497532955141</v>
       </c>
       <c r="J11">
-        <v>1.000200974488149</v>
+        <v>1.062982922101724</v>
       </c>
       <c r="K11">
-        <v>1.01209363240213</v>
+        <v>1.063084436638813</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416573</v>
+        <v>0.9921088820399291</v>
       </c>
       <c r="M11">
-        <v>1.013599475263826</v>
+        <v>1.071269151867582</v>
       </c>
       <c r="N11">
-        <v>1.001621374596578</v>
+        <v>1.064492479776954</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9665572338789225</v>
+        <v>1.056121948631532</v>
       </c>
       <c r="D12">
-        <v>0.9948220440517324</v>
+        <v>1.059253347049175</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411971</v>
+        <v>0.9881042295826724</v>
       </c>
       <c r="F12">
-        <v>0.9961859089688981</v>
+        <v>1.067433307083845</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.033031713558791</v>
+        <v>1.043382259089059</v>
       </c>
       <c r="J12">
-        <v>0.9978476294450993</v>
+        <v>1.062625010894182</v>
       </c>
       <c r="K12">
-        <v>1.010049122448048</v>
+        <v>1.062780179935253</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252507</v>
+        <v>0.9919059725120875</v>
       </c>
       <c r="M12">
-        <v>1.011386547571877</v>
+        <v>1.070931126711488</v>
       </c>
       <c r="N12">
-        <v>0.9992646875336342</v>
+        <v>1.064134060294444</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9671924962619074</v>
+        <v>1.056217197144464</v>
       </c>
       <c r="D13">
-        <v>0.99531705332255</v>
+        <v>1.05932830734714</v>
       </c>
       <c r="E13">
-        <v>0.931872359336823</v>
+        <v>0.9881581567098651</v>
       </c>
       <c r="F13">
-        <v>0.9967177853793884</v>
+        <v>1.067515447606013</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.033235567609879</v>
+        <v>1.043407009233333</v>
       </c>
       <c r="J13">
-        <v>0.9983553118866769</v>
+        <v>1.062701815173957</v>
       </c>
       <c r="K13">
-        <v>1.010490186976474</v>
+        <v>1.062845474977046</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965215</v>
+        <v>0.9919494934313052</v>
       </c>
       <c r="M13">
-        <v>1.011863892468758</v>
+        <v>1.071003663475741</v>
       </c>
       <c r="N13">
-        <v>0.9997730909425105</v>
+        <v>1.064210973645106</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9692601963182983</v>
+        <v>1.056529173174886</v>
       </c>
       <c r="D14">
-        <v>0.9969286378689373</v>
+        <v>1.059573817874073</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>0.9883348863814464</v>
       </c>
       <c r="F14">
-        <v>0.9984495216780205</v>
+        <v>1.067784490367079</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.033898759361609</v>
+        <v>1.043488014971309</v>
       </c>
       <c r="J14">
-        <v>1.000007733780237</v>
+        <v>1.062953351052923</v>
       </c>
       <c r="K14">
-        <v>1.011925754193482</v>
+        <v>1.063059300617049</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764519</v>
+        <v>0.9920921077337197</v>
       </c>
       <c r="M14">
-        <v>1.013417744437113</v>
+        <v>1.07124122375601</v>
       </c>
       <c r="N14">
-        <v>1.001427859464695</v>
+        <v>1.064462866733872</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9705238104248439</v>
+        <v>1.056721305907839</v>
       </c>
       <c r="D15">
-        <v>0.9979138008502826</v>
+        <v>1.059725006838248</v>
       </c>
       <c r="E15">
-        <v>0.9332781050717475</v>
+        <v>0.9884438009545853</v>
       </c>
       <c r="F15">
-        <v>0.9995082287611567</v>
+        <v>1.067950182695599</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.034303795027435</v>
+        <v>1.043537856532877</v>
       </c>
       <c r="J15">
-        <v>1.00101754216069</v>
+        <v>1.063108239762518</v>
       </c>
       <c r="K15">
-        <v>1.01280302029082</v>
+        <v>1.063190955247796</v>
       </c>
       <c r="L15">
-        <v>0.9494987508767193</v>
+        <v>0.9921799884222134</v>
       </c>
       <c r="M15">
-        <v>1.014367445910916</v>
+        <v>1.071387507148573</v>
       </c>
       <c r="N15">
-        <v>1.002439101888875</v>
+        <v>1.0646179754032</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9777276335620081</v>
+        <v>1.057838302202521</v>
       </c>
       <c r="D16">
-        <v>1.003534237328084</v>
+        <v>1.060603808347923</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017258</v>
+        <v>0.9890781214508737</v>
       </c>
       <c r="F16">
-        <v>1.005549673967818</v>
+        <v>1.068913467649126</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036608903303726</v>
+        <v>1.043826910316884</v>
       </c>
       <c r="J16">
-        <v>1.006773945359161</v>
+        <v>1.06400838296717</v>
       </c>
       <c r="K16">
-        <v>1.017803480823917</v>
+        <v>1.063955871162732</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175715</v>
+        <v>0.9926916645766087</v>
       </c>
       <c r="M16">
-        <v>1.019783059652767</v>
+        <v>1.072237646785381</v>
       </c>
       <c r="N16">
-        <v>1.008203679840156</v>
+        <v>1.065519396914451</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9821208268882508</v>
+        <v>1.058537835054423</v>
       </c>
       <c r="D17">
-        <v>1.006965041225747</v>
+        <v>1.061154025678338</v>
       </c>
       <c r="E17">
-        <v>0.9382760156855671</v>
+        <v>0.9894763578477731</v>
       </c>
       <c r="F17">
-        <v>1.009238722651699</v>
+        <v>1.069516739549476</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.038011007242623</v>
+        <v>1.044007309532587</v>
       </c>
       <c r="J17">
-        <v>1.010283847757491</v>
+        <v>1.064571819065826</v>
       </c>
       <c r="K17">
-        <v>1.020852040292263</v>
+        <v>1.064434485417607</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068054</v>
+        <v>0.9930127773692701</v>
       </c>
       <c r="M17">
-        <v>1.023086679756391</v>
+        <v>1.072769789027938</v>
       </c>
       <c r="N17">
-        <v>1.011718566702484</v>
+        <v>1.066083633156994</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9846407663098478</v>
+        <v>1.058945459567123</v>
       </c>
       <c r="D18">
-        <v>1.008933995277639</v>
+        <v>1.061474590605437</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215685</v>
+        <v>0.9897087662937551</v>
       </c>
       <c r="F18">
-        <v>1.011356335982401</v>
+        <v>1.069868272370203</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.038813883655048</v>
+        <v>1.044112204736134</v>
       </c>
       <c r="J18">
-        <v>1.01229685364258</v>
+        <v>1.064900034076742</v>
       </c>
       <c r="K18">
-        <v>1.022600277885067</v>
+        <v>1.064713225525508</v>
       </c>
       <c r="L18">
-        <v>0.9543373515865727</v>
+        <v>0.9932001317071766</v>
       </c>
       <c r="M18">
-        <v>1.024981881784555</v>
+        <v>1.073079776388807</v>
       </c>
       <c r="N18">
-        <v>1.013734431286825</v>
+        <v>1.066412314270872</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9854930259092328</v>
+        <v>1.059084381496202</v>
       </c>
       <c r="D19">
-        <v>1.009600074375098</v>
+        <v>1.061583833019761</v>
       </c>
       <c r="E19">
-        <v>0.939759481468009</v>
+        <v>0.9897880325774039</v>
       </c>
       <c r="F19">
-        <v>1.012072781773581</v>
+        <v>1.069988077807419</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03908518354047</v>
+        <v>1.0441479157131</v>
       </c>
       <c r="J19">
-        <v>1.012977612413637</v>
+        <v>1.065011874803903</v>
       </c>
       <c r="K19">
-        <v>1.02319146449804</v>
+        <v>1.064808196563464</v>
       </c>
       <c r="L19">
-        <v>0.954635249381271</v>
+        <v>0.993264023964098</v>
       </c>
       <c r="M19">
-        <v>1.025622883534744</v>
+        <v>1.073185406246596</v>
       </c>
       <c r="N19">
-        <v>1.014416156813421</v>
+        <v>1.066524313824694</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9816539366352162</v>
+        <v>1.058462823425716</v>
       </c>
       <c r="D20">
-        <v>1.006600318676856</v>
+        <v>1.061095030677255</v>
       </c>
       <c r="E20">
-        <v>0.9380716924660139</v>
+        <v>0.9894336180355766</v>
       </c>
       <c r="F20">
-        <v>1.00884649959542</v>
+        <v>1.069452050020409</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.037862138964195</v>
+        <v>1.043987988431978</v>
       </c>
       <c r="J20">
-        <v>1.009910857446909</v>
+        <v>1.064511412053053</v>
       </c>
       <c r="K20">
-        <v>1.020528093882608</v>
+        <v>1.064383178944667</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057443</v>
+        <v>0.9929783193490043</v>
       </c>
       <c r="M20">
-        <v>1.022735557376292</v>
+        <v>1.072712736899468</v>
       </c>
       <c r="N20">
-        <v>1.011345046702878</v>
+        <v>1.066023140359333</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9686534875038439</v>
+        <v>1.056437321957794</v>
       </c>
       <c r="D21">
-        <v>0.9964557018495773</v>
+        <v>1.05950153745268</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148895</v>
+        <v>0.9882828385668255</v>
       </c>
       <c r="F21">
-        <v>0.9979413059754267</v>
+        <v>1.067705279378951</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.03370421710136</v>
+        <v>1.043464175131845</v>
       </c>
       <c r="J21">
-        <v>0.999522880635021</v>
+        <v>1.062879298958163</v>
       </c>
       <c r="K21">
-        <v>1.011504534607654</v>
+        <v>1.062996353151229</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981066</v>
+        <v>0.9920501090198107</v>
       </c>
       <c r="M21">
-        <v>1.012961786194207</v>
+        <v>1.071171285976252</v>
       </c>
       <c r="N21">
-        <v>1.0009423177724</v>
+        <v>1.064388709476644</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9600340835041752</v>
+        <v>1.055160068801041</v>
       </c>
       <c r="D22">
-        <v>0.9897424416535832</v>
+        <v>1.058496242481729</v>
       </c>
       <c r="E22">
-        <v>0.9288972953651161</v>
+        <v>0.9875604150241496</v>
       </c>
       <c r="F22">
-        <v>0.9907289976858994</v>
+        <v>1.066603804773692</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.030935902424432</v>
+        <v>1.043131835592903</v>
       </c>
       <c r="J22">
-        <v>0.99263446435943</v>
+        <v>1.061849169971404</v>
       </c>
       <c r="K22">
-        <v>1.005519878802739</v>
+        <v>1.062120463603186</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572517</v>
+        <v>0.991467000034148</v>
       </c>
       <c r="M22">
-        <v>1.006486379695382</v>
+        <v>1.070198399381637</v>
       </c>
       <c r="N22">
-        <v>0.994044119155585</v>
+        <v>1.063357117588566</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9646490026550754</v>
+        <v>1.055837525517489</v>
       </c>
       <c r="D23">
-        <v>0.9933354565680912</v>
+        <v>1.0590294953503</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963314</v>
+        <v>0.9879432794636459</v>
       </c>
       <c r="F23">
-        <v>0.9945887104095162</v>
+        <v>1.067188026421118</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.032419092388801</v>
+        <v>1.043308300984521</v>
       </c>
       <c r="J23">
-        <v>0.9963226165091564</v>
+        <v>1.06239564064037</v>
       </c>
       <c r="K23">
-        <v>1.008724202882431</v>
+        <v>1.062585166610948</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285318</v>
+        <v>0.9917760702887607</v>
       </c>
       <c r="M23">
-        <v>1.009952816794258</v>
+        <v>1.070714501610749</v>
       </c>
       <c r="N23">
-        <v>0.9977375089044012</v>
+        <v>1.063904364308562</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9818650350523858</v>
+        <v>1.058496719191217</v>
       </c>
       <c r="D24">
-        <v>1.006765220066698</v>
+        <v>1.061121689114396</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011825</v>
+        <v>0.9894529299347241</v>
       </c>
       <c r="F24">
-        <v>1.00902383333856</v>
+        <v>1.069481281501456</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.037929452122396</v>
+        <v>1.043996719821014</v>
       </c>
       <c r="J24">
-        <v>1.010079501091308</v>
+        <v>1.064538708703441</v>
       </c>
       <c r="K24">
-        <v>1.020674563403995</v>
+        <v>1.064406363452129</v>
       </c>
       <c r="L24">
-        <v>0.953371659644254</v>
+        <v>0.9929938892766438</v>
       </c>
       <c r="M24">
-        <v>1.022894312108031</v>
+        <v>1.072738517543224</v>
       </c>
       <c r="N24">
-        <v>1.011513929840596</v>
+        <v>1.066050475774097</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.000193481146295</v>
+        <v>1.061566891453701</v>
       </c>
       <c r="D25">
-        <v>1.021101289851097</v>
+        <v>1.063535191541968</v>
       </c>
       <c r="E25">
-        <v>0.9463835801717733</v>
+        <v>0.9912096547607046</v>
       </c>
       <c r="F25">
-        <v>1.024450214501591</v>
+        <v>1.072128973192924</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.043743516564444</v>
+        <v>1.044782719339902</v>
       </c>
       <c r="J25">
-        <v>1.024714335633005</v>
+        <v>1.067008891337191</v>
       </c>
       <c r="K25">
-        <v>1.033380634327375</v>
+        <v>1.066503034282016</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005611</v>
+        <v>0.9944092447426411</v>
       </c>
       <c r="M25">
-        <v>1.036680469094491</v>
+        <v>1.075071543392359</v>
       </c>
       <c r="N25">
-        <v>1.026169547525981</v>
+        <v>1.06852416635052</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_238/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_238/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.064003666814281</v>
+        <v>1.013734984095484</v>
       </c>
       <c r="D2">
-        <v>1.065449079084737</v>
+        <v>1.031713050563766</v>
       </c>
       <c r="E2">
-        <v>0.992614727750844</v>
+        <v>0.9527101846680758</v>
       </c>
       <c r="F2">
-        <v>1.074230385536447</v>
+        <v>1.035882679319694</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045399440795534</v>
+        <v>1.047992099892422</v>
       </c>
       <c r="J2">
-        <v>1.068966137562483</v>
+        <v>1.035512503806303</v>
       </c>
       <c r="K2">
-        <v>1.068162289781367</v>
+        <v>1.042747568419305</v>
       </c>
       <c r="L2">
-        <v>0.9955398523335997</v>
+        <v>0.964870170840339</v>
       </c>
       <c r="M2">
-        <v>1.076920147860174</v>
+        <v>1.04686376039779</v>
       </c>
       <c r="N2">
-        <v>1.070484192089951</v>
+        <v>1.036983050336652</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.065766352844172</v>
+        <v>1.023041120584727</v>
       </c>
       <c r="D3">
-        <v>1.066832518187432</v>
+        <v>1.039013033046495</v>
       </c>
       <c r="E3">
-        <v>0.9936372048519299</v>
+        <v>0.9571825583057846</v>
       </c>
       <c r="F3">
-        <v>1.075750428827662</v>
+        <v>1.043755146406184</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045841419034526</v>
+        <v>1.05088257361745</v>
       </c>
       <c r="J3">
-        <v>1.070380011428344</v>
+        <v>1.042922778507127</v>
       </c>
       <c r="K3">
-        <v>1.069359710630731</v>
+        <v>1.04916993140079</v>
       </c>
       <c r="L3">
-        <v>0.9963617723202687</v>
+        <v>0.9683942856474063</v>
       </c>
       <c r="M3">
-        <v>1.078255551151607</v>
+        <v>1.053857184952224</v>
       </c>
       <c r="N3">
-        <v>1.071900073818876</v>
+        <v>1.044403848477522</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.066903966078858</v>
+        <v>1.028846194519921</v>
       </c>
       <c r="D4">
-        <v>1.067724896835661</v>
+        <v>1.043568867779501</v>
       </c>
       <c r="E4">
-        <v>0.9942998659930998</v>
+        <v>0.9600238894088611</v>
       </c>
       <c r="F4">
-        <v>1.076731410998891</v>
+        <v>1.048671938728976</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046124747480966</v>
+        <v>1.052671462916335</v>
       </c>
       <c r="J4">
-        <v>1.071291606865056</v>
+        <v>1.047539726992163</v>
       </c>
       <c r="K4">
-        <v>1.070131194067234</v>
+        <v>1.053168423469344</v>
       </c>
       <c r="L4">
-        <v>0.9968940712668347</v>
+        <v>0.9706300002952755</v>
       </c>
       <c r="M4">
-        <v>1.079116554021518</v>
+        <v>1.058216389103741</v>
       </c>
       <c r="N4">
-        <v>1.07281296382567</v>
+        <v>1.049027353558978</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.06738152430279</v>
+        <v>1.031238307689182</v>
       </c>
       <c r="D5">
-        <v>1.068099393439709</v>
+        <v>1.045446570301021</v>
       </c>
       <c r="E5">
-        <v>0.994578699834602</v>
+        <v>0.9612062874769892</v>
       </c>
       <c r="F5">
-        <v>1.07714320796616</v>
+        <v>1.05069929734586</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046243225971316</v>
+        <v>1.053405131121887</v>
       </c>
       <c r="J5">
-        <v>1.071674069307135</v>
+        <v>1.049440840304818</v>
       </c>
       <c r="K5">
-        <v>1.07045473903141</v>
+        <v>1.054814129641915</v>
       </c>
       <c r="L5">
-        <v>0.9971179600053012</v>
+        <v>0.9715596031702914</v>
       </c>
       <c r="M5">
-        <v>1.079477790048546</v>
+        <v>1.060011793468478</v>
       </c>
       <c r="N5">
-        <v>1.073195969408285</v>
+        <v>1.050931166670598</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.067461668140125</v>
+        <v>1.031637214790701</v>
       </c>
       <c r="D6">
-        <v>1.068162234709972</v>
+        <v>1.045759711947665</v>
       </c>
       <c r="E6">
-        <v>0.994625531979634</v>
+        <v>0.9614041218017083</v>
       </c>
       <c r="F6">
-        <v>1.077212315171677</v>
+        <v>1.051037449179381</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046263082047318</v>
+        <v>1.05352726969423</v>
       </c>
       <c r="J6">
-        <v>1.071738241490395</v>
+        <v>1.049757783593896</v>
       </c>
       <c r="K6">
-        <v>1.070509017813594</v>
+        <v>1.055088447796606</v>
       </c>
       <c r="L6">
-        <v>0.9971555583673455</v>
+        <v>0.9717150950965043</v>
       </c>
       <c r="M6">
-        <v>1.079538400694178</v>
+        <v>1.060311136959504</v>
       </c>
       <c r="N6">
-        <v>1.073260232723406</v>
+        <v>1.051248560055501</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.066910349943307</v>
+        <v>1.028878343620005</v>
       </c>
       <c r="D7">
-        <v>1.067729903453785</v>
+        <v>1.043594102136665</v>
       </c>
       <c r="E7">
-        <v>0.9943035907978918</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.076736915823047</v>
+        <v>1.048699180789817</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046126333076872</v>
+        <v>1.052681337060904</v>
       </c>
       <c r="J7">
-        <v>1.071296720365128</v>
+        <v>1.047565282916521</v>
       </c>
       <c r="K7">
-        <v>1.070135520368143</v>
+        <v>1.053190549065715</v>
       </c>
       <c r="L7">
-        <v>0.9968970624459044</v>
+        <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.079121383726954</v>
+        <v>1.058240522415481</v>
       </c>
       <c r="N7">
-        <v>1.072818084587498</v>
+        <v>1.049052945775679</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.064599997189373</v>
+        <v>1.01692713042032</v>
       </c>
       <c r="D8">
-        <v>1.065917204817564</v>
+        <v>1.034216492271411</v>
       </c>
       <c r="E8">
-        <v>0.9929600610674297</v>
+        <v>0.9542328392922295</v>
       </c>
       <c r="F8">
-        <v>1.074744633997703</v>
+        <v>1.038581670994264</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045549362975329</v>
+        <v>1.048986522036658</v>
       </c>
       <c r="J8">
-        <v>1.069444648251801</v>
+        <v>1.03805545321588</v>
       </c>
       <c r="K8">
-        <v>1.068567658902249</v>
+        <v>1.044952098601307</v>
       </c>
       <c r="L8">
-        <v>0.9958175282591057</v>
+        <v>0.9660706434537708</v>
       </c>
       <c r="M8">
-        <v>1.077372100439338</v>
+        <v>1.049263209310227</v>
       </c>
       <c r="N8">
-        <v>1.070963382319334</v>
+        <v>1.039529611026071</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.060505502052624</v>
+        <v>0.9940273259030227</v>
       </c>
       <c r="D9">
-        <v>1.062701078902071</v>
+        <v>1.016274400719307</v>
       </c>
       <c r="E9">
-        <v>0.9906006454969559</v>
+        <v>0.9435740419923921</v>
       </c>
       <c r="F9">
-        <v>1.071213642646732</v>
+        <v>1.019254032926704</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.044512094882534</v>
+        <v>1.041794745922988</v>
       </c>
       <c r="J9">
-        <v>1.066155438276693</v>
+        <v>1.019792772069443</v>
       </c>
       <c r="K9">
-        <v>1.065778945782639</v>
+        <v>1.029108842182154</v>
       </c>
       <c r="L9">
-        <v>0.9939188001724441</v>
+        <v>0.9576541208832515</v>
       </c>
       <c r="M9">
-        <v>1.07426547163268</v>
+        <v>1.032042263964436</v>
       </c>
       <c r="N9">
-        <v>1.067669501288784</v>
+        <v>1.021240994777648</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.057759193556481</v>
+        <v>0.9772252145420925</v>
       </c>
       <c r="D10">
-        <v>1.060541578458876</v>
+        <v>1.003142031794483</v>
       </c>
       <c r="E10">
-        <v>0.989033133672735</v>
+        <v>0.9361465105547276</v>
       </c>
       <c r="F10">
-        <v>1.068845245045325</v>
+        <v>1.005128008186388</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.04380647888322</v>
+        <v>1.036448370144002</v>
       </c>
       <c r="J10">
-        <v>1.063944651051682</v>
+        <v>1.00637250864309</v>
       </c>
       <c r="K10">
-        <v>1.063901725016347</v>
+        <v>1.017454786681097</v>
       </c>
       <c r="L10">
-        <v>0.9926553831429383</v>
+        <v>0.9517730114689353</v>
       </c>
       <c r="M10">
-        <v>1.07217745486262</v>
+        <v>1.019405288039227</v>
       </c>
       <c r="N10">
-        <v>1.065455574492332</v>
+        <v>1.007801673037903</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.056565853204719</v>
+        <v>0.9695020045208501</v>
       </c>
       <c r="D11">
-        <v>1.059602681955827</v>
+        <v>0.9971171440889777</v>
       </c>
       <c r="E11">
-        <v>0.988355674866747</v>
+        <v>0.9328454960016261</v>
       </c>
       <c r="F11">
-        <v>1.067816122642857</v>
+        <v>0.9986520945749865</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.043497532955141</v>
+        <v>1.033976283147604</v>
       </c>
       <c r="J11">
-        <v>1.062982922101724</v>
+        <v>1.000200974488148</v>
       </c>
       <c r="K11">
-        <v>1.063084436638813</v>
+        <v>1.012093632402129</v>
       </c>
       <c r="L11">
-        <v>0.9921088820399291</v>
+        <v>0.9491556125416576</v>
       </c>
       <c r="M11">
-        <v>1.071269151867582</v>
+        <v>1.013599475263825</v>
       </c>
       <c r="N11">
-        <v>1.064492479776954</v>
+        <v>1.001621374596577</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.056121948631532</v>
+        <v>0.9665572338789215</v>
       </c>
       <c r="D12">
-        <v>1.059253347049175</v>
+        <v>0.9948220440517315</v>
       </c>
       <c r="E12">
-        <v>0.9881042295826724</v>
+        <v>0.9316058186411973</v>
       </c>
       <c r="F12">
-        <v>1.067433307083845</v>
+        <v>0.9961859089688972</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.043382259089059</v>
+        <v>1.033031713558791</v>
       </c>
       <c r="J12">
-        <v>1.062625010894182</v>
+        <v>0.9978476294450985</v>
       </c>
       <c r="K12">
-        <v>1.062780179935253</v>
+        <v>1.010049122448047</v>
       </c>
       <c r="L12">
-        <v>0.9919059725120875</v>
+        <v>0.9481721277252508</v>
       </c>
       <c r="M12">
-        <v>1.070931126711488</v>
+        <v>1.011386547571876</v>
       </c>
       <c r="N12">
-        <v>1.064134060294444</v>
+        <v>0.9992646875336337</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.056217197144464</v>
+        <v>0.9671924962619092</v>
       </c>
       <c r="D13">
-        <v>1.05932830734714</v>
+        <v>0.9953170533225518</v>
       </c>
       <c r="E13">
-        <v>0.9881581567098651</v>
+        <v>0.931872359336823</v>
       </c>
       <c r="F13">
-        <v>1.067515447606013</v>
+        <v>0.9967177853793904</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.043407009233333</v>
+        <v>1.03323556760988</v>
       </c>
       <c r="J13">
-        <v>1.062701815173957</v>
+        <v>0.9983553118866787</v>
       </c>
       <c r="K13">
-        <v>1.062845474977046</v>
+        <v>1.010490186976475</v>
       </c>
       <c r="L13">
-        <v>0.9919494934313052</v>
+        <v>0.9483836088965214</v>
       </c>
       <c r="M13">
-        <v>1.071003663475741</v>
+        <v>1.01186389246876</v>
       </c>
       <c r="N13">
-        <v>1.064210973645106</v>
+        <v>0.9997730909425127</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.056529173174886</v>
+        <v>0.9692601963182984</v>
       </c>
       <c r="D14">
-        <v>1.059573817874073</v>
+        <v>0.9969286378689373</v>
       </c>
       <c r="E14">
-        <v>0.9883348863814464</v>
+        <v>0.9327433047194313</v>
       </c>
       <c r="F14">
-        <v>1.067784490367079</v>
+        <v>0.9984495216780203</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.043488014971309</v>
+        <v>1.033898759361609</v>
       </c>
       <c r="J14">
-        <v>1.062953351052923</v>
+        <v>1.000007733780237</v>
       </c>
       <c r="K14">
-        <v>1.063059300617049</v>
+        <v>1.011925754193482</v>
       </c>
       <c r="L14">
-        <v>0.9920921077337197</v>
+        <v>0.9490745509764514</v>
       </c>
       <c r="M14">
-        <v>1.07124122375601</v>
+        <v>1.013417744437113</v>
       </c>
       <c r="N14">
-        <v>1.064462866733872</v>
+        <v>1.001427859464696</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.056721305907839</v>
+        <v>0.9705238104248438</v>
       </c>
       <c r="D15">
-        <v>1.059725006838248</v>
+        <v>0.9979138008502827</v>
       </c>
       <c r="E15">
-        <v>0.9884438009545853</v>
+        <v>0.9332781050717477</v>
       </c>
       <c r="F15">
-        <v>1.067950182695599</v>
+        <v>0.9995082287611565</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.043537856532877</v>
+        <v>1.034303795027434</v>
       </c>
       <c r="J15">
-        <v>1.063108239762518</v>
+        <v>1.00101754216069</v>
       </c>
       <c r="K15">
-        <v>1.063190955247796</v>
+        <v>1.012803020290819</v>
       </c>
       <c r="L15">
-        <v>0.9921799884222134</v>
+        <v>0.9494987508767195</v>
       </c>
       <c r="M15">
-        <v>1.071387507148573</v>
+        <v>1.014367445910916</v>
       </c>
       <c r="N15">
-        <v>1.0646179754032</v>
+        <v>1.002439101888875</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.057838302202521</v>
+        <v>0.9777276335620071</v>
       </c>
       <c r="D16">
-        <v>1.060603808347923</v>
+        <v>1.003534237328083</v>
       </c>
       <c r="E16">
-        <v>0.9890781214508737</v>
+        <v>0.9363637346017262</v>
       </c>
       <c r="F16">
-        <v>1.068913467649126</v>
+        <v>1.005549673967817</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.043826910316884</v>
+        <v>1.036608903303725</v>
       </c>
       <c r="J16">
-        <v>1.06400838296717</v>
+        <v>1.00677394535916</v>
       </c>
       <c r="K16">
-        <v>1.063955871162732</v>
+        <v>1.017803480823916</v>
       </c>
       <c r="L16">
-        <v>0.9926916645766087</v>
+        <v>0.9519451749175719</v>
       </c>
       <c r="M16">
-        <v>1.072237646785381</v>
+        <v>1.019783059652766</v>
       </c>
       <c r="N16">
-        <v>1.065519396914451</v>
+        <v>1.008203679840155</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.058537835054423</v>
+        <v>0.98212082688825</v>
       </c>
       <c r="D17">
-        <v>1.061154025678338</v>
+        <v>1.006965041225746</v>
       </c>
       <c r="E17">
-        <v>0.9894763578477731</v>
+        <v>0.938276015685567</v>
       </c>
       <c r="F17">
-        <v>1.069516739549476</v>
+        <v>1.009238722651698</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.044007309532587</v>
+        <v>1.038011007242623</v>
       </c>
       <c r="J17">
-        <v>1.064571819065826</v>
+        <v>1.01028384775749</v>
       </c>
       <c r="K17">
-        <v>1.064434485417607</v>
+        <v>1.020852040292262</v>
       </c>
       <c r="L17">
-        <v>0.9930127773692701</v>
+        <v>0.9534603602068051</v>
       </c>
       <c r="M17">
-        <v>1.072769789027938</v>
+        <v>1.02308667975639</v>
       </c>
       <c r="N17">
-        <v>1.066083633156994</v>
+        <v>1.011718566702483</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.058945459567123</v>
+        <v>0.9846407663098499</v>
       </c>
       <c r="D18">
-        <v>1.061474590605437</v>
+        <v>1.008933995277641</v>
       </c>
       <c r="E18">
-        <v>0.9897087662937551</v>
+        <v>0.9393832867215681</v>
       </c>
       <c r="F18">
-        <v>1.069868272370203</v>
+        <v>1.011356335982403</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.044112204736134</v>
+        <v>1.038813883655049</v>
       </c>
       <c r="J18">
-        <v>1.064900034076742</v>
+        <v>1.012296853642583</v>
       </c>
       <c r="K18">
-        <v>1.064713225525508</v>
+        <v>1.022600277885069</v>
       </c>
       <c r="L18">
-        <v>0.9932001317071766</v>
+        <v>0.9543373515865724</v>
       </c>
       <c r="M18">
-        <v>1.073079776388807</v>
+        <v>1.024981881784557</v>
       </c>
       <c r="N18">
-        <v>1.066412314270872</v>
+        <v>1.013734431286827</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.059084381496202</v>
+        <v>0.9854930259092347</v>
       </c>
       <c r="D19">
-        <v>1.061583833019761</v>
+        <v>1.0096000743751</v>
       </c>
       <c r="E19">
-        <v>0.9897880325774039</v>
+        <v>0.939759481468009</v>
       </c>
       <c r="F19">
-        <v>1.069988077807419</v>
+        <v>1.012072781773582</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.0441479157131</v>
+        <v>1.03908518354047</v>
       </c>
       <c r="J19">
-        <v>1.065011874803903</v>
+        <v>1.012977612413639</v>
       </c>
       <c r="K19">
-        <v>1.064808196563464</v>
+        <v>1.023191464498042</v>
       </c>
       <c r="L19">
-        <v>0.993264023964098</v>
+        <v>0.954635249381271</v>
       </c>
       <c r="M19">
-        <v>1.073185406246596</v>
+        <v>1.025622883534745</v>
       </c>
       <c r="N19">
-        <v>1.066524313824694</v>
+        <v>1.014416156813422</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.058462823425716</v>
+        <v>0.9816539366352163</v>
       </c>
       <c r="D20">
-        <v>1.061095030677255</v>
+        <v>1.006600318676856</v>
       </c>
       <c r="E20">
-        <v>0.9894336180355766</v>
+        <v>0.938071692466014</v>
       </c>
       <c r="F20">
-        <v>1.069452050020409</v>
+        <v>1.00884649959542</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.043987988431978</v>
+        <v>1.037862138964195</v>
       </c>
       <c r="J20">
-        <v>1.064511412053053</v>
+        <v>1.009910857446909</v>
       </c>
       <c r="K20">
-        <v>1.064383178944667</v>
+        <v>1.020528093882608</v>
       </c>
       <c r="L20">
-        <v>0.9929783193490043</v>
+        <v>0.9532985019057444</v>
       </c>
       <c r="M20">
-        <v>1.072712736899468</v>
+        <v>1.022735557376292</v>
       </c>
       <c r="N20">
-        <v>1.066023140359333</v>
+        <v>1.011345046702878</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.056437321957794</v>
+        <v>0.9686534875038415</v>
       </c>
       <c r="D21">
-        <v>1.05950153745268</v>
+        <v>0.9964557018495752</v>
       </c>
       <c r="E21">
-        <v>0.9882828385668255</v>
+        <v>0.9324872132148895</v>
       </c>
       <c r="F21">
-        <v>1.067705279378951</v>
+        <v>0.9979413059754243</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.043464175131845</v>
+        <v>1.033704217101359</v>
       </c>
       <c r="J21">
-        <v>1.062879298958163</v>
+        <v>0.9995228806350188</v>
       </c>
       <c r="K21">
-        <v>1.062996353151229</v>
+        <v>1.011504534607651</v>
       </c>
       <c r="L21">
-        <v>0.9920501090198107</v>
+        <v>0.9488714019981065</v>
       </c>
       <c r="M21">
-        <v>1.071171285976252</v>
+        <v>1.012961786194205</v>
       </c>
       <c r="N21">
-        <v>1.064388709476644</v>
+        <v>1.000942317772397</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.055160068801041</v>
+        <v>0.9600340835041729</v>
       </c>
       <c r="D22">
-        <v>1.058496242481729</v>
+        <v>0.9897424416535807</v>
       </c>
       <c r="E22">
-        <v>0.9875604150241496</v>
+        <v>0.9288972953651168</v>
       </c>
       <c r="F22">
-        <v>1.066603804773692</v>
+        <v>0.990728997685897</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.043131835592903</v>
+        <v>1.030935902424431</v>
       </c>
       <c r="J22">
-        <v>1.061849169971404</v>
+        <v>0.9926344643594277</v>
       </c>
       <c r="K22">
-        <v>1.062120463603186</v>
+        <v>1.005519878802736</v>
       </c>
       <c r="L22">
-        <v>0.991467000034148</v>
+        <v>0.9460223821572522</v>
       </c>
       <c r="M22">
-        <v>1.070198399381637</v>
+        <v>1.00648637969538</v>
       </c>
       <c r="N22">
-        <v>1.063357117588566</v>
+        <v>0.9940441191555826</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.055837525517489</v>
+        <v>0.964649002655073</v>
       </c>
       <c r="D23">
-        <v>1.0590294953503</v>
+        <v>0.9933354565680891</v>
       </c>
       <c r="E23">
-        <v>0.9879432794636459</v>
+        <v>0.9308081199963315</v>
       </c>
       <c r="F23">
-        <v>1.067188026421118</v>
+        <v>0.9945887104095139</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.043308300984521</v>
+        <v>1.0324190923888</v>
       </c>
       <c r="J23">
-        <v>1.06239564064037</v>
+        <v>0.996322616509154</v>
       </c>
       <c r="K23">
-        <v>1.062585166610948</v>
+        <v>1.008724202882429</v>
       </c>
       <c r="L23">
-        <v>0.9917760702887607</v>
+        <v>0.947539133028532</v>
       </c>
       <c r="M23">
-        <v>1.070714501610749</v>
+        <v>1.009952816794256</v>
       </c>
       <c r="N23">
-        <v>1.063904364308562</v>
+        <v>0.9977375089043985</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.058496719191217</v>
+        <v>0.9818650350523878</v>
       </c>
       <c r="D24">
-        <v>1.061121689114396</v>
+        <v>1.0067652200667</v>
       </c>
       <c r="E24">
-        <v>0.9894529299347241</v>
+        <v>0.9381640424011828</v>
       </c>
       <c r="F24">
-        <v>1.069481281501456</v>
+        <v>1.009023833338561</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.043996719821014</v>
+        <v>1.037929452122397</v>
       </c>
       <c r="J24">
-        <v>1.064538708703441</v>
+        <v>1.01007950109131</v>
       </c>
       <c r="K24">
-        <v>1.064406363452129</v>
+        <v>1.020674563403997</v>
       </c>
       <c r="L24">
-        <v>0.9929938892766438</v>
+        <v>0.9533716596442544</v>
       </c>
       <c r="M24">
-        <v>1.072738517543224</v>
+        <v>1.022894312108033</v>
       </c>
       <c r="N24">
-        <v>1.066050475774097</v>
+        <v>1.011513929840598</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.061566891453701</v>
+        <v>1.000193481146294</v>
       </c>
       <c r="D25">
-        <v>1.063535191541968</v>
+        <v>1.021101289851095</v>
       </c>
       <c r="E25">
-        <v>0.9912096547607046</v>
+        <v>0.9463835801717732</v>
       </c>
       <c r="F25">
-        <v>1.072128973192924</v>
+        <v>1.02445021450159</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.044782719339902</v>
+        <v>1.043743516564444</v>
       </c>
       <c r="J25">
-        <v>1.067008891337191</v>
+        <v>1.024714335633004</v>
       </c>
       <c r="K25">
-        <v>1.066503034282016</v>
+        <v>1.033380634327375</v>
       </c>
       <c r="L25">
-        <v>0.9944092447426411</v>
+        <v>0.959875449400561</v>
       </c>
       <c r="M25">
-        <v>1.075071543392359</v>
+        <v>1.03668046909449</v>
       </c>
       <c r="N25">
-        <v>1.06852416635052</v>
+        <v>1.02616954752598</v>
       </c>
     </row>
   </sheetData>
